--- a/taskfolder/tasklist_1.xlsx
+++ b/taskfolder/tasklist_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyson\Documents\PromptAutomation\testfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyson\Documents\PromptAutomation\taskfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16199D2-F994-4347-B45C-C3B7849EE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ACA946-5566-4513-A7B5-1F46FFFB502A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="3495" windowWidth="28800" windowHeight="15435" xr2:uid="{701E4AA9-0B68-4DB3-AB11-34B20E7337F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{701E4AA9-0B68-4DB3-AB11-34B20E7337F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,23 +48,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝天，白云，美女，沉思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清明节，祭祀，思念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国，国庆节，礼花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>儿童节，鲜花，气球，游乐场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣诞节，疗愈，美丽，冬天</t>
+    <t>一月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一月，疗愈，大自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十二月，疗愈，大自然</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497DB412-7137-46BB-AACF-CCAD4A148C0E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,6 +520,62 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
